--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_23_36.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_23_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3311335.632202108</v>
+        <v>3309083.552490902</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283183</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -656,25 +656,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>93.52676208877617</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>132.531922615885</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>41.57692977292595</v>
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
         <v>203.9179701396201</v>
@@ -722,10 +722,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824772</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,22 +814,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>58.28185552386346</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -865,13 +865,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>114.3606976213223</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -902,10 +902,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>16.61609021060003</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,16 +944,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>168.1158122680976</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -975,7 +975,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883154</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -1051,19 +1051,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,25 +1099,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>148.434892503107</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>19.4312450905473</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,19 +1130,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>24.78311755148421</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
@@ -1190,13 +1190,13 @@
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>129.5398680316083</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1288,19 +1288,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>88.89700561060589</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1345,10 +1345,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>58.28185552386362</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634815</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1464,7 +1464,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1534,19 +1534,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>28.23631843387954</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>21.90286287505374</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1607,7 +1607,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>136.5667167289878</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>109.0404882242259</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1859,7 +1859,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1999,25 +1999,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>136.5667167289874</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428212</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>126.9927435506632</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2482,19 +2482,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>1.799772605716168</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>108.2950343703271</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2713,22 +2713,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>101.6969570046971</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>108.2950343703271</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2953,19 +2953,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428213</v>
+        <v>7.61374123523283</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3184,19 +3184,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>123.797182079703</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>216.5793400412173</v>
       </c>
     </row>
     <row r="35">
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634824</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695535</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -3430,19 +3430,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>140.7158229532351</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3487,7 +3487,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3515,10 +3515,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3664,16 +3664,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>38.61213096654825</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3752,7 +3752,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3895,16 +3895,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>83.06560892428213</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3913,10 +3913,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>46.13809394730882</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3964,7 +3964,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4138,19 +4138,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428213</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4195,7 +4195,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>240.0633098883605</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1795.666214589422</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="C2" t="n">
-        <v>1426.703697649011</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="D2" t="n">
-        <v>1068.43799904226</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E2" t="n">
-        <v>1068.43799904226</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F2" t="n">
-        <v>657.4520942526526</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>242.3796440976491</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3119.628073993393</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>2866.097597267229</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V2" t="n">
-        <v>2535.034709923658</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W2" t="n">
-        <v>2182.266054653544</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X2" t="n">
-        <v>2182.266054653544</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y2" t="n">
-        <v>2182.266054653544</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556938</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275811</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.70869461456</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609104</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.936681635989</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686077</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064751</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080122</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986299</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978977</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291642</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513958</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068413</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486468</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.964263962571</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.605821609171</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201686</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695166</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507437</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547493</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.07176934196</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577006</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>739.2385409879452</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="C4" t="n">
-        <v>570.3023580600383</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D4" t="n">
-        <v>420.1857186477025</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E4" t="n">
-        <v>272.2726250653094</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F4" t="n">
-        <v>125.382677567399</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K4" t="n">
         <v>176.6457242372933</v>
@@ -4495,43 +4495,43 @@
         <v>332.3555681596505</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S4" t="n">
-        <v>920.8870058181849</v>
+        <v>805.3711496350312</v>
       </c>
       <c r="T4" t="n">
-        <v>920.8870058181849</v>
+        <v>583.6045342045572</v>
       </c>
       <c r="U4" t="n">
-        <v>920.8870058181849</v>
+        <v>294.5016673302008</v>
       </c>
       <c r="V4" t="n">
-        <v>920.8870058181849</v>
+        <v>294.5016673302008</v>
       </c>
       <c r="W4" t="n">
-        <v>920.8870058181849</v>
+        <v>294.5016673302008</v>
       </c>
       <c r="X4" t="n">
-        <v>920.8870058181849</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="Y4" t="n">
-        <v>920.8870058181849</v>
+        <v>66.51211643218343</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2005.586939522201</v>
+        <v>1274.53911114974</v>
       </c>
       <c r="C5" t="n">
-        <v>1636.624422581789</v>
+        <v>905.5765942093287</v>
       </c>
       <c r="D5" t="n">
-        <v>1278.358723975039</v>
+        <v>547.3108956025783</v>
       </c>
       <c r="E5" t="n">
-        <v>892.5704713767946</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F5" t="n">
-        <v>481.5845665871869</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>3325.605821609171</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>3155.791869823214</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W5" t="n">
-        <v>3155.791869823214</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="X5" t="n">
-        <v>2782.326111562134</v>
+        <v>2051.278283189674</v>
       </c>
       <c r="Y5" t="n">
-        <v>2392.186779586323</v>
+        <v>1661.138951213862</v>
       </c>
     </row>
     <row r="6">
@@ -4620,37 +4620,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228008</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>629.780563451991</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C7" t="n">
-        <v>460.8443805240842</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D7" t="n">
-        <v>310.7277411117484</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E7" t="n">
-        <v>310.7277411117484</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K7" t="n">
         <v>176.6457242372933</v>
@@ -4732,43 +4732,43 @@
         <v>332.3555681596505</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R7" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S7" t="n">
-        <v>831.0565485757129</v>
+        <v>770.9527709665616</v>
       </c>
       <c r="T7" t="n">
-        <v>831.0565485757129</v>
+        <v>549.1861555360877</v>
       </c>
       <c r="U7" t="n">
-        <v>831.0565485757129</v>
+        <v>549.1861555360877</v>
       </c>
       <c r="V7" t="n">
-        <v>831.0565485757129</v>
+        <v>294.5016673302007</v>
       </c>
       <c r="W7" t="n">
-        <v>811.4290282822308</v>
+        <v>294.5016673302007</v>
       </c>
       <c r="X7" t="n">
-        <v>811.4290282822308</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="Y7" t="n">
-        <v>811.4290282822308</v>
+        <v>66.51211643218342</v>
       </c>
     </row>
     <row r="8">
@@ -4778,16 +4778,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1642.972675199009</v>
+        <v>1941.127034633561</v>
       </c>
       <c r="C8" t="n">
-        <v>1642.972675199009</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F8" t="n">
         <v>821.1650657389509</v>
@@ -4802,19 +4802,19 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
@@ -4838,16 +4838,16 @@
         <v>2755.806928794325</v>
       </c>
       <c r="V8" t="n">
-        <v>2755.806928794325</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W8" t="n">
-        <v>2403.038273524211</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X8" t="n">
-        <v>2029.572515263131</v>
+        <v>1941.127034633561</v>
       </c>
       <c r="Y8" t="n">
-        <v>2029.572515263131</v>
+        <v>1941.127034633561</v>
       </c>
     </row>
     <row r="9">
@@ -4887,7 +4887,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4936,16 +4936,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>680.3679798527295</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="C10" t="n">
-        <v>511.4317969248226</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D10" t="n">
-        <v>361.3151575124869</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E10" t="n">
-        <v>213.4020639300938</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F10" t="n">
         <v>66.51211643218343</v>
@@ -4993,19 +4993,19 @@
         <v>920.887005818185</v>
       </c>
       <c r="U10" t="n">
-        <v>920.887005818185</v>
+        <v>631.7841389438286</v>
       </c>
       <c r="V10" t="n">
-        <v>920.887005818185</v>
+        <v>377.0996507379417</v>
       </c>
       <c r="W10" t="n">
-        <v>920.887005818185</v>
+        <v>377.0996507379417</v>
       </c>
       <c r="X10" t="n">
-        <v>920.887005818185</v>
+        <v>377.0996507379417</v>
       </c>
       <c r="Y10" t="n">
-        <v>862.0164446829692</v>
+        <v>156.3070715944116</v>
       </c>
     </row>
     <row r="11">
@@ -5027,16 +5027,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111717</v>
@@ -5054,31 +5054,31 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
         <v>3094.515198591809</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191924</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>923.067041434951</v>
       </c>
       <c r="M12" t="n">
-        <v>1501.8401750111</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N12" t="n">
-        <v>2129.438138565707</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>2072.355259300789</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2495.978408795857</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>580.8993044876693</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>411.9631215597624</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>411.9631215597624</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E13" t="n">
-        <v>264.0500279773693</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F13" t="n">
-        <v>264.0500279773693</v>
+        <v>198.027470314254</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>198.027470314254</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>762.547769317909</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5270,13 +5270,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075811</v>
@@ -5285,40 +5285,40 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,28 +5349,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349513</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1373.553594266881</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>557.5558870561823</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C16" t="n">
-        <v>388.6197041282754</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="D16" t="n">
-        <v>388.6197041282754</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E16" t="n">
-        <v>240.7066105458823</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F16" t="n">
-        <v>93.81666304797189</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797189</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138415</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703114</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5492,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5501,16 +5501,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111717</v>
@@ -5519,43 +5519,43 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>280.8495004245705</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>776.1751066403293</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M18" t="n">
-        <v>1373.553594266881</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2072.35525930079</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400717</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121648</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121648</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121648</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121648</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270447</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5729,70 +5729,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,31 +5823,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
         <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>923.0670414349513</v>
+        <v>746.8882603249857</v>
       </c>
       <c r="M21" t="n">
-        <v>1520.445529061503</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N21" t="n">
-        <v>2148.04349261611</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908938</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908938</v>
+        <v>766.1780053015053</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908938</v>
+        <v>618.2649117191122</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908938</v>
+        <v>471.3749642212018</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>304.1788649360818</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="23">
@@ -5975,19 +5975,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
@@ -6005,31 +6005,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,31 +6060,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797189</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438171</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="Q24" t="n">
         <v>2516.421633107662</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121648</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121648</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6221,16 +6221,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
         <v>2206.558663014778</v>
@@ -6303,28 +6303,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438171</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121648</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121648</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121648</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121648</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6382,52 +6382,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6443,25 +6443,25 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
@@ -6473,10 +6473,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6537,25 +6537,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516144</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M30" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2102.574735228845</v>
       </c>
       <c r="P30" t="n">
         <v>2283.159972732779</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400717</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121648</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121648</v>
+        <v>415.5933575433587</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121648</v>
+        <v>415.5933575433587</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121648</v>
+        <v>268.7034100454483</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270447</v>
+        <v>101.5073107603283</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6619,52 +6619,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703114</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="32">
@@ -6686,7 +6686,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362687</v>
@@ -6695,25 +6695,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111701</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6780,13 +6780,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438171</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N33" t="n">
         <v>1307.627092998424</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908938</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908938</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908938</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
         <v>235.5284942057738</v>
@@ -6856,52 +6856,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>697.5276345711974</v>
       </c>
     </row>
     <row r="35">
@@ -6929,16 +6929,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192542</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311171</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6947,10 +6947,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694708</v>
@@ -6959,28 +6959,28 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,25 +7008,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797189</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797189</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438171</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O36" t="n">
         <v>1859.536823237711</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>923.4916164683283</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908938</v>
+        <v>754.5554335404214</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908938</v>
+        <v>754.5554335404214</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908938</v>
+        <v>606.6423399580283</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>459.7523924601179</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>763.7541388327652</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>594.8179559048583</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>407.9027098310023</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F40" t="n">
-        <v>261.0127623330919</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1683.601903741513</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1394.184733704552</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1166.195182806535</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>945.4026036630049</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7388,7 +7388,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004713</v>
@@ -7397,7 +7397,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7406,43 +7406,43 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V41" t="n">
         <v>3820.749612123003</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797189</v>
+        <v>1058.183521551621</v>
       </c>
       <c r="M42" t="n">
-        <v>691.1951506745238</v>
+        <v>1655.562009178173</v>
       </c>
       <c r="N42" t="n">
-        <v>1318.793114229131</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O42" t="n">
-        <v>1870.702844468418</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
-        <v>2294.325993963486</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2527.587654338369</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400717</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121648</v>
+        <v>747.3584617859347</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121648</v>
+        <v>597.2418223735989</v>
       </c>
       <c r="E43" t="n">
-        <v>261.0127623330919</v>
+        <v>449.3287287912058</v>
       </c>
       <c r="F43" t="n">
-        <v>261.0127623330919</v>
+        <v>449.3287287912058</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797189</v>
+        <v>282.1326295060857</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797189</v>
+        <v>140.4207983482838</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797189</v>
@@ -7612,7 +7612,7 @@
         <v>916.2946447138415</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703114</v>
+        <v>916.2946447138415</v>
       </c>
     </row>
     <row r="44">
@@ -7634,19 +7634,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075794</v>
@@ -7725,28 +7725,28 @@
         <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>1552.432392194325</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>2104.342122433613</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400717</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121648</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121648</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121648</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121648</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270447</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7843,13 +7843,13 @@
         <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138415</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703114</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
   </sheetData>
@@ -23422,19 +23422,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>137.2878198583893</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>118.3918499711701</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>43.26526345294951</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>58.20633287440191</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>12.04875628922491</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194174</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>13.30196929556064</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24370,19 +24370,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>144.634190040853</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24601,25 +24601,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>44.73700564187209</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24841,22 +24841,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194173</v>
+        <v>132.6809716109911</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25072,19 +25072,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25093,7 +25093,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,7 +25123,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>57.22910392194156</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>2.00531331087754</v>
       </c>
     </row>
     <row r="35">
@@ -25309,7 +25309,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25318,19 +25318,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>24.80831533903373</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25375,7 +25375,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25552,22 +25552,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>110.0033420516641</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>63.36835372228749</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,10 +25594,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25783,16 +25783,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>63.36835372228704</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25801,10 +25801,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>35.1277423712567</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26026,19 +26026,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194173</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856552</v>
@@ -26083,7 +26083,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>46.45968844823051</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>700103.3209317884</v>
+        <v>700103.3209317885</v>
       </c>
     </row>
     <row r="7">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>738937.5928778551</v>
+        <v>738937.5928778555</v>
       </c>
       <c r="C2" t="n">
-        <v>738937.5928778555</v>
+        <v>738937.5928778549</v>
       </c>
       <c r="D2" t="n">
         <v>738937.5928778556</v>
       </c>
       <c r="E2" t="n">
-        <v>726431.9397210052</v>
+        <v>726431.9397210053</v>
       </c>
       <c r="F2" t="n">
         <v>726431.9397210053</v>
       </c>
       <c r="G2" t="n">
-        <v>726431.939721005</v>
+        <v>726431.9397210052</v>
       </c>
       <c r="H2" t="n">
         <v>726431.9397210052</v>
       </c>
       <c r="I2" t="n">
-        <v>726431.939721005</v>
+        <v>726431.9397210053</v>
       </c>
       <c r="J2" t="n">
+        <v>726431.9397210053</v>
+      </c>
+      <c r="K2" t="n">
         <v>726431.9397210054</v>
       </c>
-      <c r="K2" t="n">
-        <v>726431.9397210049</v>
-      </c>
       <c r="L2" t="n">
-        <v>726431.9397210054</v>
+        <v>726431.9397210053</v>
       </c>
       <c r="M2" t="n">
+        <v>726431.9397210055</v>
+      </c>
+      <c r="N2" t="n">
         <v>726431.9397210053</v>
       </c>
-      <c r="N2" t="n">
-        <v>726431.939721005</v>
-      </c>
       <c r="O2" t="n">
-        <v>726431.9397210054</v>
+        <v>726431.9397210053</v>
       </c>
       <c r="P2" t="n">
-        <v>726431.9397210054</v>
+        <v>726431.9397210052</v>
       </c>
     </row>
     <row r="3">
@@ -26372,10 +26372,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>325412.4618073548</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,13 +26396,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.02793551172</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.540129233035259e-10</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,46 +26415,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.74410405254</v>
+        <v>93596.74410405252</v>
       </c>
       <c r="C4" t="n">
         <v>93596.74410405252</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.7441040525</v>
+        <v>93596.74410405252</v>
       </c>
       <c r="E4" t="n">
-        <v>14826.69604186732</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="F4" t="n">
-        <v>14826.69604186734</v>
+        <v>14826.69604186735</v>
       </c>
       <c r="G4" t="n">
-        <v>14826.69604186734</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="H4" t="n">
-        <v>14826.69604186734</v>
+        <v>14826.69604186738</v>
       </c>
       <c r="I4" t="n">
-        <v>14826.69604186733</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="J4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.69604186735</v>
       </c>
       <c r="K4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.69604186738</v>
       </c>
       <c r="L4" t="n">
         <v>14826.69604186736</v>
       </c>
       <c r="M4" t="n">
-        <v>14826.69604186727</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="N4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.69604186742</v>
       </c>
       <c r="O4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.69604186734</v>
       </c>
       <c r="P4" t="n">
         <v>14826.69604186736</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-791337.8375151834</v>
+        <v>-791337.8375151829</v>
       </c>
       <c r="C6" t="n">
-        <v>537406.9082124097</v>
+        <v>537406.9082124091</v>
       </c>
       <c r="D6" t="n">
         <v>537406.9082124098</v>
       </c>
       <c r="E6" t="n">
-        <v>285070.2520478754</v>
+        <v>285035.5141224403</v>
       </c>
       <c r="F6" t="n">
-        <v>610482.7138552307</v>
+        <v>610447.9759297949</v>
       </c>
       <c r="G6" t="n">
-        <v>610482.7138552305</v>
+        <v>610447.9759297951</v>
       </c>
       <c r="H6" t="n">
-        <v>610482.7138552307</v>
+        <v>610447.9759297951</v>
       </c>
       <c r="I6" t="n">
-        <v>610482.7138552305</v>
+        <v>610447.9759297952</v>
       </c>
       <c r="J6" t="n">
-        <v>392951.5114579535</v>
+        <v>392916.7735325175</v>
       </c>
       <c r="K6" t="n">
-        <v>610482.7138552305</v>
+        <v>610447.9759297953</v>
       </c>
       <c r="L6" t="n">
-        <v>610482.7138552309</v>
+        <v>610447.9759297952</v>
       </c>
       <c r="M6" t="n">
-        <v>525427.685919719</v>
+        <v>525392.9479942837</v>
       </c>
       <c r="N6" t="n">
-        <v>610482.7138552305</v>
+        <v>610447.9759297952</v>
       </c>
       <c r="O6" t="n">
-        <v>610482.7138552309</v>
+        <v>610447.9759297951</v>
       </c>
       <c r="P6" t="n">
-        <v>610482.7138552309</v>
+        <v>610447.9759297951</v>
       </c>
     </row>
   </sheetData>
@@ -26787,28 +26787,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26820,10 +26820,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099649</v>
@@ -26966,10 +26966,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483752</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26996,7 +26996,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,25 +27376,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>289.2070795747044</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>162.0758417714354</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,7 +27427,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27442,10 +27442,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27476,7 +27476,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.167155344068306e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27534,22 +27534,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>107.7439527351648</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
@@ -27585,13 +27585,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>75.40832771011964</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27600,7 +27600,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27622,10 +27622,10 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>365.3142798616618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27634,7 +27634,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,16 +27664,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>159.6364462020373</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27695,7 +27695,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>3.694822225952521e-13</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -27771,19 +27771,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
@@ -27792,7 +27792,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,25 +27819,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>41.33413282833487</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>267.0917532460437</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,19 +27850,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>329.8999240691987</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27910,13 +27910,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>240.1912326468607</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28008,19 +28008,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>90.93497457133141</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
@@ -28065,10 +28065,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>160.3027978282312</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28087,7 +28087,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-5.780283390417846e-13</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -28327,7 +28327,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>-1.70530256582424e-13</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28579,7 +28579,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29035,7 +29035,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>-1.70530256582424e-13</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -30235,10 +30235,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H38" t="n">
-        <v>-6.674596803735689e-14</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30472,7 +30472,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>-7.553251631224171e-14</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -31607,13 +31607,13 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
         <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O9" t="n">
         <v>557.708647897025</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M12" t="n">
-        <v>575.5951359912044</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>160.6314956130967</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,46 +31911,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,34 +32066,34 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>597.1709559744727</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>641.2555750770852</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32102,13 +32102,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,10 +32303,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32315,37 +32315,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>326.7634969305192</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>346.9084613860368</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,10 +32540,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32552,37 +32552,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>460.9249101897664</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>551.7051287319848</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32777,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32792,34 +32792,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>734.2678383622658</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>291.8940795642898</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,43 +32935,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>230.1272937575231</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>366.8427442359099</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>316.3837382263852</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,10 +33488,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33500,37 +33500,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>416.7024900153332</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067226</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,10 +33725,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33737,37 +33737,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>734.2678383622658</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>485.1127032082914</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>528.7932908500043</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34126,7 +34126,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34205,16 +34205,16 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>622.4211036182644</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862122</v>
@@ -34223,16 +34223,16 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
-        <v>171.4104471179097</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742439</v>
@@ -34363,13 +34363,13 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817562</v>
       </c>
       <c r="L44" t="n">
         <v>867.8464071162563</v>
@@ -34445,7 +34445,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422586</v>
@@ -34454,22 +34454,22 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>314.5984986256099</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742439</v>
@@ -35255,13 +35255,13 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
         <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O9" t="n">
         <v>415.1124034525806</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M12" t="n">
-        <v>433.4611020691861</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>20.64972152707519</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,25 +35723,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>455.0369220524544</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>509.9138629937518</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,28 +35963,28 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>188.9220579561602</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>212.9340539717066</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36203,22 +36203,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>322.3705304098922</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>409.1088842875403</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36440,25 +36440,25 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402476</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>151.9123054782682</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>98.78558167418976</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>235.5010321525766</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>182.409330812055</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,28 +37148,28 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>285.3607779319999</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236316704</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,28 +37385,28 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402476</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>342.516458763847</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>386.659256927986</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,7 +37774,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236315785</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37853,16 +37853,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>483.8667238383903</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37871,16 +37871,16 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
-        <v>25.73094315394571</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38011,13 +38011,13 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367756</v>
       </c>
       <c r="L44" t="n">
         <v>632.079992146269</v>
@@ -38093,7 +38093,7 @@
         <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
@@ -38102,22 +38102,22 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>180.6240912112796</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
